--- a/documentation-generator/vocab_csv/context_status.xlsx
+++ b/documentation-generator/vocab_csv/context_status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="330">
   <si>
     <t>Term</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -40,7 +40,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -64,7 +64,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>Contextually relevant information not possible to represent through other core concepts</t>
+    <t>Contextually relevant information</t>
   </si>
   <si>
     <t>dpv:Concept</t>
@@ -73,7 +73,10 @@
     <t>a</t>
   </si>
   <si>
-    <t>modified</t>
+    <t>Context is a catch-all concept for information of relevance not possible to represent through other core concepts. DPV offers specific contextual concepts such as Necessity, Frequency, and Duration. More can be created by extending Context within use-cases.</t>
+  </si>
+  <si>
+    <t>accepted</t>
   </si>
   <si>
     <t>Harshvardhan J. Pandit, Javier Fernandez, Axel Polleres, Elmar Kiesling, Fajar Ekaputra, Simon Steyskal</t>
@@ -97,9 +100,6 @@
     <t>Importance can be used to express importance, desirability, relevance, or significance as a context.</t>
   </si>
   <si>
-    <t>accepted</t>
-  </si>
-  <si>
     <t>Harshvardhan J. Pandit, Paul Ryan, Georg P Krog, Julian Flake, Beatriz Esteves</t>
   </si>
   <si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>The use of 'entity' is inclusive of entities (e.g. Data Processor) as well as 'agent' (e.g. DPO). For indicating technological implementation, the property isImplementedByTechnology should be used.</t>
-  </si>
-  <si>
-    <t>changed</t>
   </si>
   <si>
     <t>Axel Polleres, Harshvardhan J. Pandit, Beatriz Esteves, Paul Ryan, Julian Flake</t>
@@ -1753,7 +1750,9 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="9">
         <v>43560.0</v>
@@ -1762,13 +1761,13 @@
         <v>44727.0</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -1800,25 +1799,25 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="14">
@@ -1826,7 +1825,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>28</v>
@@ -1860,11 +1859,9 @@
       <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1876,7 +1873,7 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>28</v>
@@ -1910,11 +1907,9 @@
       <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1926,7 +1921,7 @@
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>28</v>
@@ -1973,10 +1968,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1990,7 +1985,7 @@
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>28</v>
@@ -2024,11 +2019,9 @@
       <c r="C9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -2040,7 +2033,7 @@
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>28</v>
@@ -2074,11 +2067,9 @@
       <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -2090,7 +2081,7 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>28</v>
@@ -2124,11 +2115,9 @@
       <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2140,7 +2129,7 @@
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>28</v>
@@ -2205,7 +2194,7 @@
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>51</v>
@@ -2251,10 +2240,10 @@
         <v>54</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -2266,7 +2255,7 @@
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>51</v>
@@ -2301,10 +2290,10 @@
         <v>57</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -2316,7 +2305,7 @@
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>51</v>
@@ -2362,10 +2351,10 @@
         <v>59</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -2377,7 +2366,7 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>51</v>
@@ -2411,11 +2400,9 @@
       <c r="C19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2429,7 +2416,7 @@
         <v>44109.0</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>51</v>
@@ -2463,11 +2450,9 @@
       <c r="C20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -2481,7 +2466,7 @@
         <v>44109.0</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>51</v>
@@ -2515,11 +2500,9 @@
       <c r="C21" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2533,7 +2516,7 @@
         <v>44109.0</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>51</v>
@@ -2567,11 +2550,9 @@
       <c r="C22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2585,7 +2566,7 @@
         <v>44109.0</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>51</v>
@@ -2631,10 +2612,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2646,7 +2627,7 @@
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>51</v>
@@ -2680,11 +2661,9 @@
       <c r="C25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -2698,7 +2677,7 @@
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>51</v>
@@ -2730,11 +2709,9 @@
       <c r="C26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2748,7 +2725,7 @@
         <v>44109.0</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>51</v>
@@ -2786,7 +2763,7 @@
         <v>79</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2800,7 +2777,7 @@
         <v>44109.0</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>51</v>
@@ -2838,7 +2815,7 @@
         <v>79</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2852,7 +2829,7 @@
         <v>44109.0</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>51</v>
@@ -2890,7 +2867,7 @@
         <v>79</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -2904,7 +2881,7 @@
         <v>44109.0</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>51</v>
@@ -2942,7 +2919,7 @@
         <v>79</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -2956,7 +2933,7 @@
         <v>44109.0</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>51</v>
@@ -2994,7 +2971,7 @@
         <v>79</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -3038,7 +3015,7 @@
         <v>79</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -3082,7 +3059,7 @@
         <v>79</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -3123,10 +3100,10 @@
         <v>109</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3172,7 +3149,7 @@
         <v>114</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -3216,7 +3193,7 @@
         <v>113</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -5919,7 +5896,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>125</v>
@@ -5933,11 +5910,11 @@
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -5987,10 +5964,10 @@
         <v>44587.0</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>52</v>
@@ -6013,13 +5990,13 @@
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>135</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>17</v>
@@ -6034,20 +6011,20 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" s="34">
         <v>43560.0</v>
       </c>
       <c r="L4" s="35"/>
-      <c r="M4" s="36" t="s">
-        <v>27</v>
+      <c r="M4" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" s="32"/>
       <c r="Q4" s="32"/>
@@ -6067,13 +6044,13 @@
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>140</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>17</v>
@@ -6092,14 +6069,14 @@
         <v>44160.0</v>
       </c>
       <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
-        <v>27</v>
+      <c r="M5" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="N5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="44" t="s">
         <v>141</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>142</v>
       </c>
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
@@ -6119,13 +6096,13 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>17</v>
@@ -6145,13 +6122,13 @@
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -6171,13 +6148,13 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>17</v>
@@ -6196,14 +6173,14 @@
         <v>44622.0</v>
       </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="46" t="s">
-        <v>27</v>
+      <c r="M7" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -6223,13 +6200,13 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>17</v>
@@ -6248,14 +6225,14 @@
         <v>44622.0</v>
       </c>
       <c r="L8" s="11"/>
-      <c r="M8" s="46" t="s">
-        <v>27</v>
+      <c r="M8" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="N8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -6275,19 +6252,19 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>125</v>
@@ -6301,7 +6278,7 @@
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>51</v>
@@ -6327,19 +6304,19 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>125</v>
@@ -6353,7 +6330,7 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>51</v>
@@ -6379,13 +6356,13 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>17</v>
@@ -6405,13 +6382,13 @@
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -6431,19 +6408,19 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="C12" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>125</v>
@@ -6451,7 +6428,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="17">
@@ -6461,10 +6438,10 @@
         <v>44727.0</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>55</v>
@@ -6487,19 +6464,19 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="47" t="s">
         <v>174</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>175</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>125</v>
@@ -6514,7 +6491,7 @@
         <v>99</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -6535,19 +6512,19 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="47" t="s">
         <v>178</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>179</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>125</v>
@@ -6562,7 +6539,7 @@
         <v>99</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -6583,13 +6560,13 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>17</v>
@@ -6629,13 +6606,13 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>17</v>
@@ -9666,13 +9643,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -9684,13 +9661,13 @@
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -9722,19 +9699,19 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>190</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -9746,13 +9723,13 @@
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -9772,19 +9749,17 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -9796,13 +9771,13 @@
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -9822,19 +9797,17 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>194</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -9846,13 +9819,13 @@
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -9872,19 +9845,17 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>194</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -9896,13 +9867,13 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -9922,19 +9893,17 @@
     </row>
     <row r="8">
       <c r="A8" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>18</v>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -9946,13 +9915,13 @@
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
@@ -9972,25 +9941,23 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>18</v>
+      <c r="D9" s="11"/>
+      <c r="E9" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="14">
@@ -9998,7 +9965,7 @@
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>51</v>
@@ -10034,19 +10001,19 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="D11" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -10058,13 +10025,13 @@
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -10084,19 +10051,17 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -10108,13 +10073,13 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -10134,25 +10099,23 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="17">
@@ -10160,13 +10123,13 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -10186,19 +10149,17 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -10210,13 +10171,13 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -10236,25 +10197,23 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="17">
@@ -10264,13 +10223,13 @@
         <v>44811.0</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -10290,25 +10249,23 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="17">
@@ -10318,13 +10275,13 @@
         <v>44811.0</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -10344,19 +10301,17 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -10368,7 +10323,7 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>51</v>
@@ -10392,19 +10347,17 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="12" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -10416,7 +10369,7 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>51</v>
@@ -10447,19 +10400,19 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -10471,13 +10424,13 @@
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -10497,19 +10450,17 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -10521,13 +10472,13 @@
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -10547,19 +10498,17 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>240</v>
-      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="12" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -10571,13 +10520,13 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -10597,19 +10546,17 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>240</v>
-      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="12" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -10621,13 +10568,13 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -10650,19 +10597,19 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="D25" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -10674,13 +10621,13 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -10700,19 +10647,17 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -10724,13 +10669,13 @@
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
@@ -10750,25 +10695,23 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="12" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="17">
@@ -10776,13 +10719,13 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N27" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -10802,19 +10745,17 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="12" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -10826,13 +10767,13 @@
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -10852,19 +10793,17 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="12" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -10876,13 +10815,13 @@
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -10902,19 +10841,17 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="12" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -10926,13 +10863,13 @@
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -10952,19 +10889,17 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -10976,13 +10911,13 @@
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N31" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -11005,19 +10940,19 @@
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>273</v>
-      </c>
       <c r="D33" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -11029,7 +10964,7 @@
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N33" s="12" t="s">
         <v>51</v>
@@ -11053,19 +10988,17 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -11077,7 +11010,7 @@
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N34" s="12" t="s">
         <v>51</v>
@@ -11101,19 +11034,17 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -11125,7 +11056,7 @@
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N35" s="12" t="s">
         <v>51</v>
@@ -11152,19 +11083,19 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>281</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -11176,7 +11107,7 @@
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N37" s="12" t="s">
         <v>51</v>
@@ -11200,19 +11131,17 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -11224,7 +11153,7 @@
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>51</v>
@@ -11248,19 +11177,17 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -11272,7 +11199,7 @@
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N39" s="12" t="s">
         <v>51</v>
@@ -11296,19 +11223,17 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D40" s="11"/>
       <c r="E40" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -11320,7 +11245,7 @@
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>51</v>
@@ -11344,19 +11269,17 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -11368,7 +11291,7 @@
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N41" s="12" t="s">
         <v>51</v>
@@ -11392,19 +11315,17 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -11416,7 +11337,7 @@
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>51</v>
@@ -11440,19 +11361,17 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -11464,7 +11383,7 @@
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N43" s="12" t="s">
         <v>51</v>
@@ -11488,19 +11407,17 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -11512,7 +11429,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N44" s="12" t="s">
         <v>51</v>
@@ -11536,19 +11453,17 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -11560,7 +11475,7 @@
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N45" s="12" t="s">
         <v>51</v>
@@ -11584,19 +11499,17 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -11608,7 +11521,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N46" s="12" t="s">
         <v>51</v>
@@ -11632,19 +11545,17 @@
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D47" s="11"/>
       <c r="E47" s="12" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -11656,7 +11567,7 @@
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N47" s="12" t="s">
         <v>51</v>
@@ -14266,19 +14177,19 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>314</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>315</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>125</v>
@@ -14292,13 +14203,13 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -14316,22 +14227,22 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>318</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -14342,13 +14253,13 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -14366,22 +14277,22 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -14392,13 +14303,13 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -14416,22 +14327,22 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -14442,13 +14353,13 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -14466,22 +14377,22 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -14492,7 +14403,7 @@
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>51</v>
